--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3442773.124451985</v>
+        <v>3440228.5317577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>109.9645463939864</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>172.0188164403311</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>33.83508264353971</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>130.4949840230019</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21594625443431</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425909</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>184.862505716516</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090787</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074796</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115062</v>
+        <v>29.43305940534565</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.86486348319974</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>79.77074001252448</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>18.32574259788885</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>81.61065509760168</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.854692234071578</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.21070476472219</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>87.2147151485299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>140.9357387834181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428207</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>126.0773463611707</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426225</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433431</v>
+        <v>511.862417143344</v>
       </c>
       <c r="T2" t="n">
-        <v>338.1060369005844</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="U2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="V2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="X2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005844</v>
+        <v>133.0228471103742</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264276</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264276</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264276</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099429</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="V3" t="n">
-        <v>453.3411714548523</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="W3" t="n">
-        <v>453.3411714548523</v>
+        <v>336.23494716454</v>
       </c>
       <c r="X3" t="n">
-        <v>263.9213864383676</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1074137586279</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="C5" t="n">
-        <v>412.1448968182161</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146562</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146562</v>
+        <v>53.87919821146558</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226215</v>
+        <v>46.9336974622621</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746987</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030774</v>
+        <v>521.2049416030766</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570919</v>
+        <v>823.5081935709184</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.41363507924</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837886</v>
+        <v>1703.718566540653</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837886</v>
+        <v>1562.810726301001</v>
       </c>
       <c r="T5" t="n">
-        <v>1541.173012083829</v>
+        <v>1562.810726301001</v>
       </c>
       <c r="U5" t="n">
-        <v>1541.173012083829</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="V5" t="n">
-        <v>1541.173012083829</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="W5" t="n">
-        <v>1541.173012083829</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.70725382275</v>
+        <v>935.7070037112849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.70725382275</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787542</v>
+        <v>61.66788464787535</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806065</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189982</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223506</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352487</v>
+        <v>958.8971200352482</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
         <v>1378.176233639509</v>
@@ -4668,28 +4668,28 @@
         <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1062.768760419124</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.87866090655</v>
+        <v>834.6536183746806</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.87866090655</v>
+        <v>599.5015101429378</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="F7" t="n">
-        <v>222.9291020878906</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="G7" t="n">
-        <v>54.62357498665645</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="K7" t="n">
-        <v>64.240666625747</v>
+        <v>64.24066662574694</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584117</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347975</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195371</v>
+        <v>287.8841338195368</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934722</v>
+        <v>342.3101561934719</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858009</v>
+        <v>369.8190495858006</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858009</v>
+        <v>369.8190495858006</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858009</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858009</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858009</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858009</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858009</v>
+        <v>34.55805631675769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.81618965246383</v>
+        <v>896.0092460387907</v>
       </c>
       <c r="C8" t="n">
-        <v>80.81618965246383</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>80.81618965246383</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>80.81618965246383</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>73.87068890326036</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>61.8800476470717</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.021119953477</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>857.5553616923974</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.4160297165856</v>
+        <v>896.0092460387907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>201.2365247003565</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32343111796334</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4990,22 +4990,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>332.4955175640695</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5121,25 +5121,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.154262550759</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1920.063992790046</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424041</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6759351444937</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4798358593736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5768,7 +5768,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101821</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,19 +6479,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6604,61 +6604,61 @@
         <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
         <v>963.2236229443774</v>
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2304.603751475798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7154,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192724</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,31 +7661,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.21924749803927</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.0905472182265</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253128</v>
+        <v>270592.3620253121</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231926</v>
+        <v>115410.0540231929</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881992</v>
+        <v>62913.63765881969</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197471</v>
+        <v>27875.25362197488</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263461</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687973</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687965</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687971</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687961</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687958</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687963</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936818</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421265</v>
+        <v>-167415.6306421272</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534347</v>
+        <v>205831.1174534351</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564993</v>
+        <v>384651.5111564986</v>
       </c>
       <c r="E6" t="n">
-        <v>28608.22730820345</v>
+        <v>28573.48938276764</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570331</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824683</v>
+        <v>630016.6969570324</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824685</v>
+        <v>630016.696957033</v>
       </c>
       <c r="J6" t="n">
-        <v>580986.4901539241</v>
+        <v>580951.7522284886</v>
       </c>
       <c r="K6" t="n">
-        <v>567137.7972236488</v>
+        <v>567103.0592982132</v>
       </c>
       <c r="L6" t="n">
-        <v>602176.181260494</v>
+        <v>602141.4433350579</v>
       </c>
       <c r="M6" t="n">
-        <v>472905.0543308706</v>
+        <v>472870.316405435</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824688</v>
+        <v>630016.6969570331</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824682</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824688</v>
+        <v>630016.6969570329</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950618</v>
+        <v>758.8996292950616</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594715</v>
+        <v>431.975703959471</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821573</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262232</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.450116793151</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666917</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27027,28 +27027,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666917</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>303.1332868360716</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>41.42506461587564</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377109</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>198.9655045058856</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459954</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715764</v>
+        <v>75.27800118047554</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410619</v>
+        <v>154.5643095410616</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760039</v>
+        <v>92.85788772760041</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>24.87823579841282</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469748</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27713,7 +27713,7 @@
         <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937513</v>
+        <v>43.32085084937515</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>55.3443066494134</v>
+        <v>222.2619237555739</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>130.19503300046</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304047</v>
+        <v>30.24193919304049</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589152</v>
+        <v>36.91115760589155</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>35.9895765040979</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>286.0010621582942</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>304.6272835584519</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27980,10 +27980,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>135.5663557888597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28062,10 +28062,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>35.45192755253839</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.389926081639333e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286704</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520269</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511778</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968101</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610698</v>
+        <v>544.3712888610696</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.034371519149</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860964</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634656</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.52130774898983</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920254</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062487</v>
+        <v>56.20152915062485</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
         <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721889</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658085</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468666</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374453</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872491</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
         <v>208.3680642547498</v>
@@ -31391,10 +31391,10 @@
         <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378882</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757163</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635565</v>
+        <v>96.75348224635562</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260801</v>
@@ -31452,10 +31452,10 @@
         <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
         <v>193.4323186275348</v>
@@ -31467,16 +31467,16 @@
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054712</v>
+        <v>61.5330748605471</v>
       </c>
       <c r="S7" t="n">
         <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830802</v>
+        <v>5.8472594388308</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656353</v>
+        <v>0.07464586517656351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,28 +31841,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>351.4708102230528</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>669.4669885000068</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198411</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811904</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695374</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644789</v>
+        <v>314.9582252644787</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974622</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308268</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092694</v>
       </c>
       <c r="K6" t="n">
         <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923147</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437902</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635333</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993001</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872829</v>
+        <v>68.38629016872824</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554472</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501486</v>
+        <v>68.57507023501481</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230884</v>
+        <v>75.59399159230878</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876157</v>
+        <v>81.73343028761565</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569202</v>
+        <v>54.97578017569197</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235234</v>
+        <v>27.78676100235228</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.4890361370313</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>526.8707440555623</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318498</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
